--- a/Recycling/Met_rec_tech/metrec_tech_Max_full_Max.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Max_full_Max.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.790641760249801E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.54597460364225E-13</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.456431916814462E-08</v>
+      </c>
+      <c r="E7">
         <v>3.380585788940621</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.803073585173831E-10</v>
-      </c>
-      <c r="F7">
-        <v>6.456431916814462E-08</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9.008897666882374</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>770.558660512575</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>51.75437048296335</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>555718.4775010174</v>
+      </c>
+      <c r="E7">
         <v>1595073.138670097</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>97636.50015534522</v>
-      </c>
-      <c r="F7">
-        <v>555718.4775010174</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4250698.421700131</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>943.4884725198202</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>63.36915598445746</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>682288.1030967074</v>
+      </c>
+      <c r="E7">
         <v>1644250.498666809</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>119548.2149697343</v>
-      </c>
-      <c r="F7">
-        <v>682288.1030967074</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4381750.798831684</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.742841812639779E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>5.200459410783548E-12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.120408920927626E-06</v>
+      </c>
+      <c r="E7">
         <v>7.266989337740624</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.810855611430511E-09</v>
-      </c>
-      <c r="F7">
-        <v>1.120408920927626E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>19.36574528124792</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.274651152997573E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.561161062662048E-11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.581652223671282E-05</v>
+      </c>
+      <c r="E7">
         <v>16.10997662634679</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.615094137218221E-07</v>
-      </c>
-      <c r="F7">
-        <v>1.581652223671282E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>42.93135565954852</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.420931283617587E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.543647726217094E-10</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0001531910374625524</v>
+      </c>
+      <c r="E7">
         <v>29.78306596683938</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.800443815677539E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0001531910374625524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>79.36866870204311</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.424956270749728E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>9.570681446802027E-09</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.001354055846713034</v>
+      </c>
+      <c r="E7">
         <v>59.26234419784337</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.805543825279549E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.001354055846713034</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>157.9277757495505</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.148163723885732E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.711611560053483E-08</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.009751366886087938</v>
+      </c>
+      <c r="E7">
         <v>110.6524557124966</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0001454823537132921</v>
-      </c>
-      <c r="F7">
-        <v>0.009751366886087938</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>294.8768977744248</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.585982751617055E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.423458054379144E-07</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.05063769133620581</v>
+      </c>
+      <c r="E7">
         <v>167.906171461374</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0008345014324069955</v>
-      </c>
-      <c r="F7">
-        <v>0.05063769133620581</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>447.4518946633643</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.931773696386847E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.640765498665813E-06</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.2768303522654459</v>
+      </c>
+      <c r="E7">
         <v>296.1412895158489</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.004981900052394414</v>
-      </c>
-      <c r="F7">
-        <v>0.2768303522654459</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>789.1846971950132</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002129257256546735</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.43011005593726E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.386818642463567</v>
+      </c>
+      <c r="E7">
         <v>518.8614673696383</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02697954576505633</v>
-      </c>
-      <c r="F7">
-        <v>1.386818642463567</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1382.710025615506</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001062751120725858</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>7.137940049449741E-05</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.460053666802498</v>
+      </c>
+      <c r="E7">
         <v>902.8563173703479</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1346598322505652</v>
-      </c>
-      <c r="F7">
-        <v>6.460053666802498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2406.015016006036</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.004380555408945865</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.0002942188559725278</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>25.04308302764389</v>
+      </c>
+      <c r="E7">
         <v>1380.720958357412</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.5550545607800114</v>
-      </c>
-      <c r="F7">
-        <v>25.04308302764389</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3679.472907048941</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01788041142451774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.001200933147174978</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>96.76873511540474</v>
+      </c>
+      <c r="E7">
         <v>2204.342998847076</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.265604012115406</v>
-      </c>
-      <c r="F7">
-        <v>96.76873511540474</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5874.337093970061</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.06871425638119194</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.004615175021000884</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>353.8780904745839</v>
+      </c>
+      <c r="E7">
         <v>3469.062194935278</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8.706695346690212</v>
-      </c>
-      <c r="F7">
-        <v>353.8780904745839</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>9244.677776396822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.211936214171573</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2517,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.01423464027994434</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1041.645128861226</v>
+      </c>
+      <c r="E7">
         <v>4567.241702637792</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>26.85416603340918</v>
-      </c>
-      <c r="F7">
-        <v>1041.645128861226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>12171.20809464073</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7054560218758101</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2632,10 +2632,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.04738176882122312</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>3302.062837075334</v>
+      </c>
+      <c r="E7">
         <v>6759.516749386087</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89.38742826360422</v>
-      </c>
-      <c r="F7">
-        <v>3302.062837075334</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>18013.38539374257</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.12797471913334</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2747,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.1429248643044866</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>9353.668088827573</v>
+      </c>
+      <c r="E7">
         <v>9511.205057779169</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>269.6329489788953</v>
-      </c>
-      <c r="F7">
-        <v>9353.668088827573</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>25346.33889031345</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.831554666286547</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.3916748408095043</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>23095.93954102843</v>
+      </c>
+      <c r="E7">
         <v>13084.81296713459</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>738.9088167564612</v>
-      </c>
-      <c r="F7">
-        <v>23095.93954102843</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>34869.61975550138</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.62921084583647</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.9154023744754622</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44472.54303804862</v>
+      </c>
+      <c r="E7">
         <v>17622.19564267126</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1726.939836068495</v>
-      </c>
-      <c r="F7">
-        <v>44472.54303804862</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>46961.25675318412</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>23.86073088222895</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.602599736211789</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58415.69874151157</v>
+      </c>
+      <c r="E7">
         <v>23258.44062045776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3023.362624903467</v>
-      </c>
-      <c r="F7">
-        <v>58415.69874151157</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61981.24364316928</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>25.79755594979837</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.732686084266068</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>56935.69078157764</v>
+      </c>
+      <c r="E7">
         <v>30110.73482680438</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3268.775246552317</v>
-      </c>
-      <c r="F7">
-        <v>56935.69078157764</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>80241.8709848267</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>7.417534713489948E-06</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.976693252186904E-05</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.93429158454633</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,10 +3437,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.070222518168321</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>55311.48941446964</v>
+      </c>
+      <c r="E7">
         <v>38266.61798864425</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2019.013661769732</v>
-      </c>
-      <c r="F7">
-        <v>55311.48941446964</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>101976.4227386781</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.24007481273072</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.6877719410470224</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>58344.31940645931</v>
+      </c>
+      <c r="E7">
         <v>47773.85157665586</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1297.506753579098</v>
-      </c>
-      <c r="F7">
-        <v>58344.31940645931</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>127312.17808905</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.8616665663515</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.065344677855051</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>61976.77796913678</v>
+      </c>
+      <c r="E7">
         <v>58633.81041348316</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2009.811438806532</v>
-      </c>
-      <c r="F7">
-        <v>61976.77796913678</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>156252.8007904757</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>24.14398226810692</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.621624241308895</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>65208.23098065447</v>
+      </c>
+      <c r="E7">
         <v>70801.5315908418</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3059.253044930513</v>
-      </c>
-      <c r="F7">
-        <v>65208.23098065447</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>188678.4695265241</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>33.66287869958432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>2.260958425387668</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>67627.51557049183</v>
+      </c>
+      <c r="E7">
         <v>84197.23767267654</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4265.380210242533</v>
-      </c>
-      <c r="F7">
-        <v>67627.51557049183</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>224376.5860073076</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>47.23890130451858</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.172788425602671</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>72744.16364788049</v>
+      </c>
+      <c r="E7">
         <v>98735.58677744922</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5985.580632484108</v>
-      </c>
-      <c r="F7">
-        <v>72744.16364788049</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>263119.7232939822</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>57.94568132053875</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4127,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>3.891906499313106</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74996.01287672266</v>
+      </c>
+      <c r="E7">
         <v>114379.5830743599</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7342.223004139524</v>
-      </c>
-      <c r="F7">
-        <v>74996.01287672266</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>304809.2914750402</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>66.71317326290823</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>4.480772797811324</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>73235.29021555607</v>
+      </c>
+      <c r="E7">
         <v>131224.9557395167</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8453.140669802664</v>
-      </c>
-      <c r="F7">
-        <v>73235.29021555607</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>349700.3985125728</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>98.73704152529871</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4357,10 +4357,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>6.631647516741723</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>74614.19567136996</v>
+      </c>
+      <c r="E7">
         <v>149616.4978641544</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12510.84396846622</v>
-      </c>
-      <c r="F7">
-        <v>74614.19567136996</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>398711.8809246014</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>163.1110566014568</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>10.95531136799369</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>75110.98995544507</v>
+      </c>
+      <c r="E7">
         <v>170289.109187441</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20667.59290280764</v>
-      </c>
-      <c r="F7">
-        <v>75110.98995544507</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>453802.1675039235</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0005429865325292985</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001447000730481291</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>239.0955353428703</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4702,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.05878896841681</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>77139.06393004073</v>
+      </c>
+      <c r="E7">
         <v>194512.5008632737</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30295.48880563849</v>
-      </c>
-      <c r="F7">
-        <v>77139.06393004073</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>518354.9019638211</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>320.8981147361022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4817,10 +4817,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.55303777429375</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>80875.44559726812</v>
+      </c>
+      <c r="E7">
         <v>224205.1155306215</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40660.58878429818</v>
-      </c>
-      <c r="F7">
-        <v>80875.44559726812</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>597482.5276775096</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>335.3247494355543</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>22.52199891290602</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>80414.42275262781</v>
+      </c>
+      <c r="E7">
         <v>261974.288832955</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42488.56917470374</v>
-      </c>
-      <c r="F7">
-        <v>80414.42275262781</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>698133.3138094881</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>290.7853394074093</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.53052111139007</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>75334.71212940413</v>
+      </c>
+      <c r="E7">
         <v>311039.6229714132</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>36845.03762158455</v>
-      </c>
-      <c r="F7">
-        <v>75334.71212940413</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>828887.154073154</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>281.7441983874473</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.92327524431413</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>67851.05879782938</v>
+      </c>
+      <c r="E7">
         <v>375011.0926721923</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35699.44623206877</v>
-      </c>
-      <c r="F7">
-        <v>67851.05879782938</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>999364.2429906299</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>260.0631761507705</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5277,10 +5277,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.46707506801617</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>67163.18562119416</v>
+      </c>
+      <c r="E7">
         <v>457522.4066806762</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32952.27169564711</v>
-      </c>
-      <c r="F7">
-        <v>67163.18562119416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1219248.023693433</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>228.3281903815042</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.33560306602526</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78319.26764495677</v>
+      </c>
+      <c r="E7">
         <v>561755.748454057</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28931.17232739171</v>
-      </c>
-      <c r="F7">
-        <v>78319.26764495677</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1497018.672965382</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>197.2056546019112</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5507,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>13.24526610707798</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>107229.5951040148</v>
+      </c>
+      <c r="E7">
         <v>689921.7073185035</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24987.6757122766</v>
-      </c>
-      <c r="F7">
-        <v>107229.5951040148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1838567.173691195</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>224.9794589304723</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>15.11068639576245</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>167006.8442867663</v>
+      </c>
+      <c r="E7">
         <v>842764.9303362024</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28506.85885770545</v>
-      </c>
-      <c r="F7">
-        <v>167006.8442867663</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2245877.930231535</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>350.8086169044589</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.56196881339579</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>256377.6243904648</v>
+      </c>
+      <c r="E7">
         <v>1019151.099336451</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44450.51017414356</v>
-      </c>
-      <c r="F7">
-        <v>256377.6243904648</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2715928.106616682</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.006549930999020747</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01745486190244262</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>499.8522472818573</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.57244518588455</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>361096.0848731757</v>
+      </c>
+      <c r="E7">
         <v>1215768.496888006</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>63335.63753202184</v>
-      </c>
-      <c r="F7">
-        <v>361096.0848731757</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3239892.331948697</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>698.8580013841827</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6082,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>46.93861450413229</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>507911.112833226</v>
+      </c>
+      <c r="E7">
         <v>1426968.242460929</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88551.40154459073</v>
-      </c>
-      <c r="F7">
-        <v>507911.112833226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3802716.946949607</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>994.9183485979502</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>66.82343013234629</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>723399.4727412667</v>
+      </c>
+      <c r="E7">
         <v>1644781.350045514</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>126064.8286437036</v>
-      </c>
-      <c r="F7">
-        <v>723399.4727412667</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4383165.460681923</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1201.477427696766</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6312,10 +6312,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>80.69691654438481</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>873560.5931921708</v>
+      </c>
+      <c r="E7">
         <v>1859175.899606403</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>152237.6647845679</v>
-      </c>
-      <c r="F7">
-        <v>873560.5931921708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4954503.884824283</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1226.515399970726</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>82.37858539013727</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>893956.6855181918</v>
+      </c>
+      <c r="E7">
         <v>2058624.669473988</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>155410.1941572051</v>
-      </c>
-      <c r="F7">
-        <v>893956.6855181918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5486013.412966065</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1211.175575106255</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6542,10 +6542,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.34829007342313</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>886037.5764216112</v>
+      </c>
+      <c r="E7">
         <v>2231016.8064331</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153466.5046115362</v>
-      </c>
-      <c r="F7">
-        <v>886037.5764216112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5945419.923376352</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1180.329529611181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6657,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.27652351197217</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>867682.5878867432</v>
+      </c>
+      <c r="E7">
         <v>2364863.971541218</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>149558.0417259615</v>
-      </c>
-      <c r="F7">
-        <v>867682.5878867432</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6302108.22793176</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1136.496981151403</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6772,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>76.33252188243915</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>837778.2494317255</v>
+      </c>
+      <c r="E7">
         <v>2450647.224252395</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>144004.0756961001</v>
-      </c>
-      <c r="F7">
-        <v>837778.2494317255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6530711.373497689</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1102.499094564371</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6887,10 +6887,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>74.04906274009096</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>811692.5753202977</v>
+      </c>
+      <c r="E7">
         <v>2482067.717421878</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>139696.2470658592</v>
-      </c>
-      <c r="F7">
-        <v>811692.5753202977</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6614443.609648262</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1074.451251125484</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7002,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>72.16523668638241</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>787903.4861720708</v>
+      </c>
+      <c r="E7">
         <v>2456942.687549767</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>136142.3407760299</v>
-      </c>
-      <c r="F7">
-        <v>787903.4861720708</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6547488.106334105</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.0361293096194388</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.09628072572553499</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>994.1083953115215</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7232,10 +7232,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>66.76902983213833</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>726064.8745356689</v>
+      </c>
+      <c r="E7">
         <v>2377549.554312489</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>125962.2005009953</v>
-      </c>
-      <c r="F7">
-        <v>726064.8745356689</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6335913.942138162</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>798.2473390923269</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7347,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>53.61407332303907</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>580898.2750005847</v>
+      </c>
+      <c r="E7">
         <v>2250355.206834152</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>101144.8971262584</v>
-      </c>
-      <c r="F7">
-        <v>580898.2750005847</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5996954.681294406</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>489.9922724683336</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7462,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.91020256166652</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>351307.4498504253</v>
+      </c>
+      <c r="E7">
         <v>2085230.104763427</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62086.29276212212</v>
-      </c>
-      <c r="F7">
-        <v>351307.4498504253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5556914.037552945</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>295.4984834418106</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7577,10 +7577,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>19.84707819522548</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>190190.3565302059</v>
+      </c>
+      <c r="E7">
         <v>1894369.807503107</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37442.23406077697</v>
-      </c>
-      <c r="F7">
-        <v>190190.3565302059</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5048291.865527607</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>313.5886040812135</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7692,10 +7692,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>21.06209640685698</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>165486.2109037177</v>
+      </c>
+      <c r="E7">
         <v>1691169.953694664</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39734.41005870082</v>
-      </c>
-      <c r="F7">
-        <v>165486.2109037177</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4506786.101977857</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>361.7771246196579</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7807,10 +7807,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>24.29866575942718</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>157999.6701230542</v>
+      </c>
+      <c r="E7">
         <v>1489212.274564188</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45840.31572707388</v>
-      </c>
-      <c r="F7">
-        <v>157999.6701230542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3968590.600393594</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>380.3817212392066</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7922,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>25.54823861542975</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139105.4526327638</v>
+      </c>
+      <c r="E7">
         <v>1301377.439272802</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48197.68031697594</v>
-      </c>
-      <c r="F7">
-        <v>139105.4526327638</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3468030.95923564</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>351.0352370857828</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8037,10 +8037,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>23.57718969848111</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>107220.2945677931</v>
+      </c>
+      <c r="E7">
         <v>1139009.488820986</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>44479.22492683263</v>
-      </c>
-      <c r="F7">
-        <v>107220.2945677931</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3035337.828125888</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>305.1432277953738</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8152,10 +8152,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.49486492200853</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>83082.79353914366</v>
+      </c>
+      <c r="E7">
         <v>1011091.429827849</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38664.30725498198</v>
-      </c>
-      <c r="F7">
-        <v>83082.79353914366</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2694449.953904386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>279.2427775109692</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8267,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>18.7552679667255</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>79374.05616538458</v>
+      </c>
+      <c r="E7">
         <v>923528.0688899619</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>35382.49439918383</v>
-      </c>
-      <c r="F7">
-        <v>79374.05616538458</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2461103.011301012</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8395,10 +8395,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1415523749712305</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.3772218604218882</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>261.2297633301142</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8497,10 +8497,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.54542859017407</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>86304.36273667622</v>
+      </c>
+      <c r="E7">
         <v>878752.2499894637</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33100.08846178592</v>
-      </c>
-      <c r="F7">
-        <v>86304.36273667622</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2341780.26796313</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>247.8540492564892</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>16.64705225996698</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>107380.8816204838</v>
+      </c>
+      <c r="E7">
         <v>875853.2244147632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>31405.26887678687</v>
-      </c>
-      <c r="F7">
-        <v>107380.8816204838</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2334054.676492685</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>256.1913761844441</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8727,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17.207026638011</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>148733.4336231516</v>
+      </c>
+      <c r="E7">
         <v>911248.5055501848</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32461.68088486804</v>
-      </c>
-      <c r="F7">
-        <v>148733.4336231516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2428379.295226727</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>311.3745340414538</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8842,10 +8842,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20.91338897290676</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>215606.9538423268</v>
+      </c>
+      <c r="E7">
         <v>979685.2548188851</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39453.86808200416</v>
-      </c>
-      <c r="F7">
-        <v>215606.9538423268</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2610755.874112192</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>426.8073414104656</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8957,10 +8957,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.66640322686423</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>309618.8730068293</v>
+      </c>
+      <c r="E7">
         <v>1075219.686750226</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54080.21113954548</v>
-      </c>
-      <c r="F7">
-        <v>309618.8730068293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2865344.863910581</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>591.2440629095463</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9072,10 +9072,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>39.71075253027254</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>429296.9642228202</v>
+      </c>
+      <c r="E7">
         <v>1191877.536542242</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>74915.77734226607</v>
-      </c>
-      <c r="F7">
-        <v>429296.9642228202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3176225.491242378</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>787.8606038940287</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>52.9164509756326</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>572221.3448073666</v>
+      </c>
+      <c r="E7">
         <v>1323904.569403171</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>99828.80722321643</v>
-      </c>
-      <c r="F7">
-        <v>572221.3448073666</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3528063.339048911</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>991.966630139096</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9302,10 +9302,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>66.62517873565272</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>721467.206304095</v>
+      </c>
+      <c r="E7">
         <v>1465727.802210398</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>125690.8201813567</v>
-      </c>
-      <c r="F7">
-        <v>721467.206304095</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3906007.006482692</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1145.596306002187</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9417,10 +9417,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>76.94367565126328</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>834233.1529948813</v>
+      </c>
+      <c r="E7">
         <v>1611833.090960125</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>145157.0394842381</v>
-      </c>
-      <c r="F7">
-        <v>834233.1529948813</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4295361.892621839</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1208.001437824204</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9532,10 +9532,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.13509997476177</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>881463.4051267823</v>
+      </c>
+      <c r="E7">
         <v>1756706.609750974</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153064.313745203</v>
-      </c>
-      <c r="F7">
-        <v>881463.4051267823</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4681434.244253215</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.881885993737427E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1.263963795589538E-16</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.115627532592174E-11</v>
+      </c>
+      <c r="E7">
         <v>0.4887841190831158</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.384513620256531E-13</v>
-      </c>
-      <c r="F7">
-        <v>5.115627532592174E-11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.302557126171006</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1208.391969853255</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>81.16132995614116</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>884202.8571752516</v>
+      </c>
+      <c r="E7">
         <v>1894877.429062365</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>153113.797558012</v>
-      </c>
-      <c r="F7">
-        <v>884202.8571752516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5049644.622406553</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1194.474089379971</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>80.22653916179355</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>875956.2593574394</v>
+      </c>
+      <c r="E7">
         <v>2021032.997192417</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>151350.2807634723</v>
-      </c>
-      <c r="F7">
-        <v>875956.2593574394</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5385835.647970559</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1190.250547756975</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9992,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>79.94286609560369</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>872637.5534483909</v>
+      </c>
+      <c r="E7">
         <v>2130180.984416203</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>150815.1212182464</v>
-      </c>
-      <c r="F7">
-        <v>872637.5534483909</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5676703.298974146</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1197.266843678266</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10107,10 +10107,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>80.41411377230499</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>874647.557946073</v>
+      </c>
+      <c r="E7">
         <v>2217857.580543551</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>151704.1470807984</v>
-      </c>
-      <c r="F7">
-        <v>874647.557946073</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5910352.001183053</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1166.010836367035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>78.31481223291588</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>847536.1952481533</v>
+      </c>
+      <c r="E7">
         <v>2280390.531995667</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>147743.7384589961</v>
-      </c>
-      <c r="F7">
-        <v>847536.1952481533</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6076995.593628838</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1053.298527983774</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10337,10 +10337,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>70.74451958033971</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>760884.1130605903</v>
+      </c>
+      <c r="E7">
         <v>2315206.873568729</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>133462.1063407468</v>
-      </c>
-      <c r="F7">
-        <v>760884.1130605903</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6169777.400673361</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>873.9384704473439</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10452,10 +10452,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>58.69784832313623</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>623546.3604416909</v>
+      </c>
+      <c r="E7">
         <v>2321146.718700805</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>110735.6233577778</v>
-      </c>
-      <c r="F7">
-        <v>623546.3604416909</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6185606.44933323</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>669.7832600515951</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10567,10 +10567,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44.98581712252592</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>462589.8217014536</v>
+      </c>
+      <c r="E7">
         <v>2298721.781213377</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>84867.37833894994</v>
-      </c>
-      <c r="F7">
-        <v>462589.8217014536</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6125846.401926245</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>524.3586239420725</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>35.21840955156198</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>334894.1861506128</v>
+      </c>
+      <c r="E7">
         <v>2250248.379733814</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>66440.80910585169</v>
-      </c>
-      <c r="F7">
-        <v>334894.1861506128</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5996669.998557427</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>482.2242221497262</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10797,10 +10797,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>32.38846349789156</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>273316.4971053115</v>
+      </c>
+      <c r="E7">
         <v>2179794.033172693</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>61102.01306350072</v>
-      </c>
-      <c r="F7">
-        <v>273316.4971053115</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5808916.739807821</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.25401791229635E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10912,10 +10912,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8.422578442254546E-15</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.525445235658494E-09</v>
+      </c>
+      <c r="E7">
         <v>1.443705826579467</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.588950022406894E-11</v>
-      </c>
-      <c r="F7">
-        <v>2.525445235658494E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3.84732080909919</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>494.0536037051313</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11027,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.18298080977996</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>249670.6545764502</v>
+      </c>
+      <c r="E7">
         <v>2092907.651398658</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62600.89883723747</v>
-      </c>
-      <c r="F7">
-        <v>249670.6545764502</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5577373.873891304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>496.454043652091</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.34420572970288</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>228124.6201882469</v>
+      </c>
+      <c r="E7">
         <v>1996152.525658232</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62905.05550598263</v>
-      </c>
-      <c r="F7">
-        <v>228124.6201882469</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5319531.866333503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>472.4175522710858</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11257,10 +11257,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>31.72980108565462</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>202635.2968909303</v>
+      </c>
+      <c r="E7">
         <v>1896514.001013094</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>59859.4224935727</v>
-      </c>
-      <c r="F7">
-        <v>202635.2968909303</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5054005.910700682</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>437.7061206934411</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>29.39841688101996</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>184059.4646988998</v>
+      </c>
+      <c r="E7">
         <v>1800787.312065963</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>55461.18149220812</v>
-      </c>
-      <c r="F7">
-        <v>184059.4646988998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4798904.576625548</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>411.7032875360605</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>27.65194340690632</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>181446.6904714918</v>
+      </c>
+      <c r="E7">
         <v>1715048.499760634</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>52166.39583381169</v>
-      </c>
-      <c r="F7">
-        <v>181446.6904714918</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4570419.859963235</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>398.2932567442407</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11602,10 +11602,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.75126220331551</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>194113.3833983256</v>
+      </c>
+      <c r="E7">
         <v>1644274.031358971</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50467.22802143808</v>
-      </c>
-      <c r="F7">
-        <v>194113.3833983256</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4381813.5109262</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>399.6368580727455</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11717,10 +11717,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>26.8415048344094</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>222156.5103455331</v>
+      </c>
+      <c r="E7">
         <v>1592123.618585323</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>50637.47402351664</v>
-      </c>
-      <c r="F7">
-        <v>222156.5103455331</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4242838.26778921</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>426.5826122519686</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11832,10 +11832,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>28.65130935183149</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>269334.3356417313</v>
+      </c>
+      <c r="E7">
         <v>1560861.816588121</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54051.73599593487</v>
-      </c>
-      <c r="F7">
-        <v>269334.3356417313</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4159528.926551227</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>495.8391641241821</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11947,10 +11947,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>33.30290750736038</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>341038.1397770094</v>
+      </c>
+      <c r="E7">
         <v>1551380.612336758</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62827.14490916671</v>
-      </c>
-      <c r="F7">
-        <v>341038.1397770094</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4134262.536584503</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>614.2340987836633</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12062,10 +12062,10 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>41.25487226445888</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>438459.9482773519</v>
+      </c>
+      <c r="E7">
         <v>1563292.126320034</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77828.81531876675</v>
-      </c>
-      <c r="F7">
-        <v>438459.9482773519</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4166005.440694208</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
